--- a/BR - Brake System/Cost/Cost_BR_CME.xlsx
+++ b/BR - Brake System/Cost/Cost_BR_CME.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD130352-58FE-4D92-BBB7-C289381115E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" firstSheet="15" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="20" r:id="rId1"/>
@@ -850,7 +849,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="15">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -1881,15 +1880,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Monétaire" xfId="8" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal_Sheet1" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="TableStyleLight1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal_Sheet1" xfId="7"/>
+    <cellStyle name="TableStyleLight1" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3170,39 +3169,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F7" sqref="F7"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
       <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="3" customWidth="1"/>
-    <col min="11" max="13" width="10.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="3" customWidth="1"/>
+    <col min="11" max="13" width="10.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>24</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
         <v>21</v>
       </c>
@@ -3229,7 +3228,7 @@
       <c r="C2" s="49"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:15" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="46" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
         <v>19</v>
       </c>
@@ -3239,7 +3238,7 @@
       <c r="C3" s="49"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:15" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="46" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>18</v>
       </c>
@@ -3252,7 +3251,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:15" s="41" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="41" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="44"/>
       <c r="C5" s="43"/>
@@ -3305,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="34" t="str">
         <f>'BR A0001'!B3</f>
@@ -3353,7 +3352,7 @@
       </c>
       <c r="O7" s="27"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="23" t="str">
         <f>'BR A0001'!B3</f>
@@ -3403,7 +3402,7 @@
       </c>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="23" t="str">
         <f>'BR A0001'!$B$3</f>
@@ -3453,7 +3452,7 @@
       </c>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="23" t="str">
         <f>'BR A0001'!$B$3</f>
@@ -3503,7 +3502,7 @@
       </c>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="23" t="str">
         <f>'BR A0001'!$B$3</f>
@@ -3553,7 +3552,7 @@
       </c>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="34" t="str">
         <f>'BR A0002'!B3</f>
@@ -3601,7 +3600,7 @@
       </c>
       <c r="O12" s="27"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="23" t="str">
         <f>'BR 02001'!B3</f>
@@ -3651,7 +3650,7 @@
       </c>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="23" t="str">
         <f>'BR A0002'!$B$3</f>
@@ -3701,7 +3700,7 @@
       </c>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="23" t="str">
         <f>'BR A0002'!$B$3</f>
@@ -3751,7 +3750,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="23" t="str">
         <f>'BR A0002'!$B$3</f>
@@ -3801,7 +3800,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="34" t="str">
         <f>'BR A0003'!B3</f>
@@ -3850,7 +3849,7 @@
       </c>
       <c r="O17" s="27"/>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="23" t="str">
         <f>'BR 03001'!B3</f>
@@ -3900,7 +3899,7 @@
       </c>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="23" t="str">
         <f>'BR A0003'!$B$3</f>
@@ -3950,7 +3949,7 @@
       </c>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="23" t="str">
         <f>'BR A0003'!$B$3</f>
@@ -4000,7 +3999,7 @@
       </c>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
       <c r="B21" s="23" t="str">
         <f>'BR A0003'!$B$3</f>
@@ -4050,7 +4049,7 @@
       </c>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" s="10" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="10" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="16" t="str">
         <f>'BR A0001'!B3</f>
@@ -4087,7 +4086,7 @@
       </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="1"/>
@@ -4103,7 +4102,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1"/>
@@ -4119,7 +4118,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="D25" s="1"/>
@@ -4133,7 +4132,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="D26" s="1"/>
@@ -4147,7 +4146,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="D27" s="1"/>
@@ -4161,7 +4160,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="D28" s="1"/>
@@ -4175,7 +4174,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="D29" s="1"/>
@@ -4189,7 +4188,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="D30" s="1"/>
@@ -4203,7 +4202,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="D31" s="1"/>
@@ -4217,7 +4216,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="D32" s="1"/>
@@ -4231,7 +4230,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="D33" s="1"/>
@@ -4245,7 +4244,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="D34" s="1"/>
@@ -4259,7 +4258,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="D35" s="1"/>
@@ -4273,7 +4272,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="D36" s="1"/>
@@ -4287,7 +4286,7 @@
       <c r="M36" s="8"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="D37" s="1"/>
@@ -4301,7 +4300,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="D38" s="1"/>
@@ -4315,7 +4314,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="D39" s="1"/>
@@ -4329,7 +4328,7 @@
       <c r="M39" s="8"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="D40" s="1"/>
@@ -4343,7 +4342,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="D41" s="1"/>
@@ -4357,7 +4356,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="D42" s="1"/>
@@ -4371,7 +4370,7 @@
       <c r="M42" s="8"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="D43" s="1"/>
@@ -4385,7 +4384,7 @@
       <c r="M43" s="8"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="D44" s="1"/>
@@ -4399,7 +4398,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="D45" s="1"/>
@@ -4413,7 +4412,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="D46" s="1"/>
@@ -4427,7 +4426,7 @@
       <c r="M46" s="8"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="D47" s="1"/>
@@ -4441,7 +4440,7 @@
       <c r="M47" s="8"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="1"/>
@@ -4455,7 +4454,7 @@
       <c r="M48" s="8"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="1"/>
@@ -4469,7 +4468,7 @@
       <c r="M49" s="8"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="1"/>
@@ -4483,7 +4482,7 @@
       <c r="M50" s="8"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="1"/>
@@ -4497,7 +4496,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="1"/>
@@ -4511,7 +4510,7 @@
       <c r="M52" s="8"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="F53" s="4"/>
@@ -4521,7 +4520,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="F54" s="4"/>
@@ -4531,7 +4530,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="F55" s="4"/>
@@ -4541,7 +4540,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="F56" s="4"/>
@@ -4551,7 +4550,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="F57" s="4"/>
@@ -4561,7 +4560,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="F58" s="4"/>
@@ -4571,7 +4570,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="F59" s="4"/>
@@ -4581,7 +4580,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="F60" s="4"/>
@@ -4591,7 +4590,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="F61" s="4"/>
@@ -4601,7 +4600,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="F62" s="4"/>
@@ -4611,7 +4610,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="2"/>
@@ -4627,7 +4626,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64" s="2"/>
@@ -4643,7 +4642,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65" s="2"/>
@@ -4659,7 +4658,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66" s="2"/>
@@ -4675,7 +4674,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="2"/>
@@ -4691,7 +4690,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="2"/>
@@ -4707,7 +4706,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69" s="2"/>
@@ -4723,7 +4722,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="2"/>
@@ -4739,7 +4738,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71" s="2"/>
@@ -4755,7 +4754,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72" s="2"/>
@@ -4771,7 +4770,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73" s="2"/>
@@ -4787,7 +4786,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="2"/>
@@ -4803,7 +4802,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
       <c r="C75" s="2"/>
@@ -4819,7 +4818,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76" s="2"/>
@@ -4835,7 +4834,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -4851,7 +4850,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
       <c r="C78" s="2"/>
@@ -4867,7 +4866,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79" s="2"/>
@@ -4883,7 +4882,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80" s="2"/>
@@ -4899,7 +4898,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="2"/>
@@ -4915,7 +4914,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="2"/>
@@ -4931,7 +4930,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="2"/>
@@ -4947,7 +4946,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="2"/>
@@ -4963,7 +4962,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="2"/>
@@ -4979,7 +4978,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="2"/>
@@ -4995,7 +4994,7 @@
       <c r="M86" s="3"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="2"/>
@@ -5011,7 +5010,7 @@
       <c r="M87" s="3"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="2"/>
@@ -5027,7 +5026,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="2"/>
@@ -5043,7 +5042,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="2"/>
@@ -5059,7 +5058,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="2"/>
@@ -5075,7 +5074,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="2"/>
@@ -5091,7 +5090,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -5107,7 +5106,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
@@ -5123,7 +5122,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="2"/>
@@ -5139,7 +5138,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="2"/>
@@ -5155,7 +5154,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="2"/>
@@ -5171,7 +5170,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="2"/>
@@ -5187,7 +5186,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -5203,7 +5202,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="2"/>
@@ -5219,7 +5218,7 @@
       <c r="M100" s="3"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="2"/>
@@ -5235,7 +5234,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
@@ -5251,7 +5250,7 @@
       <c r="M102" s="3"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="2"/>
@@ -5267,7 +5266,7 @@
       <c r="M103" s="3"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="2"/>
@@ -5283,7 +5282,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="2"/>
@@ -5299,7 +5298,7 @@
       <c r="M105" s="3"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="2"/>
@@ -5315,7 +5314,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="2"/>
@@ -5331,7 +5330,7 @@
       <c r="M107" s="3"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="2"/>
@@ -5347,7 +5346,7 @@
       <c r="M108" s="3"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="2"/>
@@ -5363,7 +5362,7 @@
       <c r="M109" s="3"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="2"/>
@@ -5379,7 +5378,7 @@
       <c r="M110" s="3"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="2"/>
@@ -5395,7 +5394,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="2"/>
@@ -5411,7 +5410,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="2"/>
@@ -5427,7 +5426,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="2"/>
@@ -5443,7 +5442,7 @@
       <c r="M114" s="3"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="2"/>
@@ -5459,7 +5458,7 @@
       <c r="M115" s="3"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="2"/>
@@ -5475,7 +5474,7 @@
       <c r="M116" s="3"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="2"/>
@@ -5491,7 +5490,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="2"/>
@@ -5507,7 +5506,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="2"/>
@@ -5523,7 +5522,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="2"/>
@@ -5539,7 +5538,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="2"/>
@@ -5555,7 +5554,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="2"/>
@@ -5571,7 +5570,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="2"/>
@@ -5587,7 +5586,7 @@
       <c r="M123" s="3"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="2"/>
@@ -5603,7 +5602,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="2"/>
@@ -5619,7 +5618,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="2"/>
     </row>
-    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="2"/>
@@ -5635,7 +5634,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="2"/>
@@ -5651,7 +5650,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="2"/>
@@ -5667,7 +5666,7 @@
       <c r="M128" s="3"/>
       <c r="N128" s="2"/>
     </row>
-    <row r="129" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="2"/>
@@ -5683,7 +5682,7 @@
       <c r="M129" s="3"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="2"/>
@@ -5699,7 +5698,7 @@
       <c r="M130" s="3"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="2"/>
@@ -5715,7 +5714,7 @@
       <c r="M131" s="3"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="132" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="2"/>
@@ -5731,7 +5730,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="2"/>
     </row>
-    <row r="133" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="2"/>
@@ -5747,7 +5746,7 @@
       <c r="M133" s="3"/>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="2"/>
@@ -5763,7 +5762,7 @@
       <c r="M134" s="3"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="2"/>
@@ -5779,7 +5778,7 @@
       <c r="M135" s="3"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="2"/>
@@ -5795,7 +5794,7 @@
       <c r="M136" s="3"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="2"/>
@@ -5811,7 +5810,7 @@
       <c r="M137" s="3"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -5827,7 +5826,7 @@
       <c r="M138" s="3"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2"/>
@@ -5843,7 +5842,7 @@
       <c r="M139" s="3"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="2"/>
@@ -5859,7 +5858,7 @@
       <c r="M140" s="3"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="2"/>
@@ -5875,7 +5874,7 @@
       <c r="M141" s="3"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="142" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="2"/>
@@ -5891,7 +5890,7 @@
       <c r="M142" s="3"/>
       <c r="N142" s="2"/>
     </row>
-    <row r="143" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="2"/>
@@ -5907,7 +5906,7 @@
       <c r="M143" s="3"/>
       <c r="N143" s="2"/>
     </row>
-    <row r="144" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2"/>
@@ -5923,7 +5922,7 @@
       <c r="M144" s="3"/>
       <c r="N144" s="2"/>
     </row>
-    <row r="145" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="2"/>
@@ -5939,7 +5938,7 @@
       <c r="M145" s="3"/>
       <c r="N145" s="2"/>
     </row>
-    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="2"/>
@@ -5955,7 +5954,7 @@
       <c r="M146" s="3"/>
       <c r="N146" s="2"/>
     </row>
-    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="2"/>
@@ -5971,7 +5970,7 @@
       <c r="M147" s="3"/>
       <c r="N147" s="2"/>
     </row>
-    <row r="148" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="2"/>
@@ -5987,7 +5986,7 @@
       <c r="M148" s="3"/>
       <c r="N148" s="2"/>
     </row>
-    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="2"/>
@@ -6003,7 +6002,7 @@
       <c r="M149" s="3"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="2"/>
@@ -6019,7 +6018,7 @@
       <c r="M150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="2"/>
@@ -6035,7 +6034,7 @@
       <c r="M151" s="3"/>
       <c r="N151" s="2"/>
     </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="2"/>
@@ -6051,7 +6050,7 @@
       <c r="M152" s="3"/>
       <c r="N152" s="2"/>
     </row>
-    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="2"/>
@@ -6067,7 +6066,7 @@
       <c r="M153" s="3"/>
       <c r="N153" s="2"/>
     </row>
-    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="2"/>
@@ -6083,7 +6082,7 @@
       <c r="M154" s="3"/>
       <c r="N154" s="2"/>
     </row>
-    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="2"/>
@@ -6099,7 +6098,7 @@
       <c r="M155" s="3"/>
       <c r="N155" s="2"/>
     </row>
-    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="2"/>
@@ -6115,7 +6114,7 @@
       <c r="M156" s="3"/>
       <c r="N156" s="2"/>
     </row>
-    <row r="157" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="2"/>
@@ -6131,7 +6130,7 @@
       <c r="M157" s="3"/>
       <c r="N157" s="2"/>
     </row>
-    <row r="158" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="2"/>
@@ -6147,7 +6146,7 @@
       <c r="M158" s="3"/>
       <c r="N158" s="2"/>
     </row>
-    <row r="159" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="2"/>
@@ -6163,7 +6162,7 @@
       <c r="M159" s="3"/>
       <c r="N159" s="2"/>
     </row>
-    <row r="160" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="2"/>
@@ -6179,7 +6178,7 @@
       <c r="M160" s="3"/>
       <c r="N160" s="2"/>
     </row>
-    <row r="161" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="2"/>
@@ -6195,7 +6194,7 @@
       <c r="M161" s="3"/>
       <c r="N161" s="2"/>
     </row>
-    <row r="162" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="2"/>
@@ -6211,7 +6210,7 @@
       <c r="M162" s="3"/>
       <c r="N162" s="2"/>
     </row>
-    <row r="163" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="2"/>
@@ -6227,7 +6226,7 @@
       <c r="M163" s="3"/>
       <c r="N163" s="2"/>
     </row>
-    <row r="164" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="2"/>
@@ -6243,7 +6242,7 @@
       <c r="M164" s="3"/>
       <c r="N164" s="2"/>
     </row>
-    <row r="165" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="2"/>
@@ -6259,7 +6258,7 @@
       <c r="M165" s="3"/>
       <c r="N165" s="2"/>
     </row>
-    <row r="166" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="2"/>
@@ -6275,7 +6274,7 @@
       <c r="M166" s="3"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="2"/>
@@ -6291,7 +6290,7 @@
       <c r="M167" s="3"/>
       <c r="N167" s="2"/>
     </row>
-    <row r="168" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="2"/>
@@ -6309,21 +6308,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" location="'BR A0001'!A1" display="'BR A0001'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F8" location="'BR 01001'!A1" display="'BR 01001'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F9" location="'BR 01002'!A1" display="'BR 01002'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F10" location="'BR 01003'!A1" display="'BR 01003'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F11" location="'BR 01004'!A1" display="'BR 01004'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F14" location="'BR 02002'!A1" display="'BR 02002'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F15" location="'BR 02003'!A1" display="'BR 02003'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F16" location="'BR 02004'!A1" display="'BR 02004'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F12" location="'BR A0002'!A1" display="'BR A0002'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F18" location="'BR 03001'!A1" display="'BR 03001'!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F19" location="'BR 03002'!A1" display="'BR 03002'!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F20" location="'BR 03003'!A1" display="'BR 03003'!A1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F21" location="'BR 03004'!A1" display="'BR 03004'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F17" location="'BR A0003'!A1" display="'BR A0003'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F13" location="BR_02001" display="BR_02001" xr:uid="{6DC8597C-5109-4874-8CB8-BA46DFE1F177}"/>
+    <hyperlink ref="F7" location="'BR A0001'!A1" display="'BR A0001'!A1"/>
+    <hyperlink ref="F8" location="'BR 01001'!A1" display="'BR 01001'!A1"/>
+    <hyperlink ref="F9" location="'BR 01002'!A1" display="'BR 01002'!A1"/>
+    <hyperlink ref="F10" location="'BR 01003'!A1" display="'BR 01003'!A1"/>
+    <hyperlink ref="F11" location="'BR 01004'!A1" display="'BR 01004'!A1"/>
+    <hyperlink ref="F14" location="'BR 02002'!A1" display="'BR 02002'!A1"/>
+    <hyperlink ref="F15" location="'BR 02003'!A1" display="'BR 02003'!A1"/>
+    <hyperlink ref="F16" location="'BR 02004'!A1" display="'BR 02004'!A1"/>
+    <hyperlink ref="F12" location="'BR A0002'!A1" display="'BR A0002'!A1"/>
+    <hyperlink ref="F18" location="'BR 03001'!A1" display="'BR 03001'!A1"/>
+    <hyperlink ref="F19" location="'BR 03002'!A1" display="'BR 03002'!A1"/>
+    <hyperlink ref="F20" location="'BR 03003'!A1" display="'BR 03003'!A1"/>
+    <hyperlink ref="F21" location="'BR 03004'!A1" display="'BR 03004'!A1"/>
+    <hyperlink ref="F17" location="'BR A0003'!A1" display="'BR A0003'!A1"/>
+    <hyperlink ref="F13" location="BR_02001" display="BR_02001"/>
   </hyperlinks>
   <pageMargins left="0.41" right="0.22" top="0.72" bottom="0.57999999999999996" header="0.5" footer="0.26"/>
   <pageSetup scale="58" fitToHeight="99" orientation="landscape" r:id="rId1"/>
@@ -6335,37 +6334,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -6382,7 +6381,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -6414,7 +6413,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -6442,7 +6441,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -6468,7 +6467,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -6498,7 +6497,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -6521,7 +6520,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -6542,7 +6541,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -6563,7 +6562,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -6580,7 +6579,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -6625,7 +6624,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -6669,7 +6668,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -6691,7 +6690,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -6708,7 +6707,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -6743,7 +6742,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -6780,7 +6779,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -6816,7 +6815,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -6838,7 +6837,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -6855,7 +6854,7 @@
       <c r="N18" s="67"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -6872,7 +6871,7 @@
       <c r="N19" s="67"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -6889,7 +6888,7 @@
       <c r="N20" s="67"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -6906,7 +6905,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="68"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -6923,7 +6922,7 @@
       <c r="N22" s="67"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="68"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -6940,7 +6939,7 @@
       <c r="N23" s="67"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="68"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -6957,7 +6956,7 @@
       <c r="N24" s="67"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="68"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -6974,7 +6973,7 @@
       <c r="N25" s="67"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="63"/>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
@@ -6993,8 +6992,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1"/>
+    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="38" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7011,36 +7010,38 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
     <col min="2" max="2" width="35" style="59" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="59"/>
-    <col min="7" max="7" width="37.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="59"/>
+    <col min="7" max="7" width="37.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -7057,7 +7058,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -7089,7 +7090,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -7119,7 +7120,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -7145,7 +7146,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -7175,7 +7176,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -7198,7 +7199,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -7219,7 +7220,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -7240,7 +7241,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -7257,7 +7258,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -7302,7 +7303,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -7368,7 +7369,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -7385,7 +7386,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -7420,7 +7421,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -7457,7 +7458,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -7493,7 +7494,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -7515,7 +7516,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -7532,7 +7533,7 @@
       <c r="N18" s="67"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -7549,7 +7550,7 @@
       <c r="N19" s="67"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -7566,7 +7567,7 @@
       <c r="N20" s="67"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -7583,7 +7584,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="68"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -7600,7 +7601,7 @@
       <c r="N22" s="67"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="68"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -7617,7 +7618,7 @@
       <c r="N23" s="67"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="68"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -7634,7 +7635,7 @@
       <c r="N24" s="67"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="68"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -7651,7 +7652,7 @@
       <c r="N25" s="67"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="63"/>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
@@ -7670,9 +7671,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="E3" location="'dBR 02002'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1"/>
+    <hyperlink ref="E3" location="'dBR 02002'!A1" display="Drawing"/>
+    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7689,24 +7690,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="13.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="138" t="s">
         <v>163</v>
       </c>
@@ -7716,7 +7717,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'BR 02002'!A1" display="BR 02002" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B1" location="'BR 02002'!A1" display="BR 02002"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7725,37 +7726,37 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="59"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="59"/>
     <col min="7" max="7" width="19" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -7772,7 +7773,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -7804,7 +7805,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -7832,7 +7833,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -7858,7 +7859,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -7888,7 +7889,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -7911,7 +7912,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -7932,7 +7933,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -7953,7 +7954,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -7970,7 +7971,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -8015,7 +8016,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -8058,7 +8059,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -8080,7 +8081,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -8097,7 +8098,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -8132,7 +8133,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -8169,7 +8170,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -8203,7 +8204,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -8225,7 +8226,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -8242,7 +8243,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="63"/>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
@@ -8261,8 +8262,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1"/>
+    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8279,36 +8280,38 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="59"/>
-    <col min="7" max="7" width="37.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="59"/>
+    <col min="7" max="7" width="37.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -8325,7 +8328,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -8357,7 +8360,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -8387,7 +8390,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -8413,7 +8416,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -8443,7 +8446,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -8466,7 +8469,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -8487,7 +8490,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -8508,7 +8511,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -8525,7 +8528,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -8570,7 +8573,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -8614,7 +8617,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -8636,7 +8639,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -8653,7 +8656,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -8688,7 +8691,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -8725,7 +8728,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -8761,7 +8764,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -8783,7 +8786,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -8800,7 +8803,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -8817,7 +8820,7 @@
       <c r="N19" s="60"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -8834,7 +8837,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
@@ -8851,7 +8854,7 @@
       <c r="N21" s="60"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -8870,9 +8873,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="E3" location="'dBR 02004'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="B4" location="'BR A0002'!A1" display="'BR A0002'!A1"/>
+    <hyperlink ref="E3" location="'dBR 02004'!A1" display="Drawing"/>
+    <hyperlink ref="G2" location="BR_A0002_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8889,23 +8892,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="13.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>163</v>
       </c>
@@ -8915,7 +8918,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'BR 02004'!A1" display="BR 02004" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B1" location="'BR 02004'!A1" display="BR 02004"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8923,39 +8926,39 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="82" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="82" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="82" customWidth="1"/>
     <col min="9" max="9" width="11" style="82" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="82" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="82" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="82" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="82" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="82"/>
+    <col min="11" max="11" width="7.109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="82" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="82" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="82" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="191"/>
       <c r="B1" s="192"/>
       <c r="C1" s="192"/>
@@ -8972,7 +8975,7 @@
       <c r="N1" s="192"/>
       <c r="O1" s="193"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="190" t="s">
         <v>24</v>
       </c>
@@ -9004,7 +9007,7 @@
       </c>
       <c r="O2" s="83"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="190" t="s">
         <v>150</v>
       </c>
@@ -9029,7 +9032,7 @@
       </c>
       <c r="O3" s="83"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="190" t="s">
         <v>147</v>
       </c>
@@ -9052,7 +9055,7 @@
       <c r="N4" s="111"/>
       <c r="O4" s="83"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="190" t="s">
         <v>144</v>
       </c>
@@ -9080,7 +9083,7 @@
       </c>
       <c r="O5" s="83"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="190" t="s">
         <v>141</v>
       </c>
@@ -9103,7 +9106,7 @@
       <c r="N6" s="111"/>
       <c r="O6" s="83"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="190" t="s">
         <v>139</v>
       </c>
@@ -9124,7 +9127,7 @@
       <c r="N7" s="111"/>
       <c r="O7" s="83"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="189"/>
       <c r="B8" s="111"/>
       <c r="C8" s="111"/>
@@ -9141,7 +9144,7 @@
       <c r="N8" s="111"/>
       <c r="O8" s="83"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="190" t="s">
         <v>35</v>
       </c>
@@ -9168,7 +9171,7 @@
       <c r="N9" s="111"/>
       <c r="O9" s="83"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="201">
         <v>10</v>
       </c>
@@ -9199,7 +9202,7 @@
       <c r="N10" s="111"/>
       <c r="O10" s="83"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="201">
         <v>20</v>
       </c>
@@ -9230,7 +9233,7 @@
       <c r="N11" s="180"/>
       <c r="O11" s="83"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="201">
         <v>30</v>
       </c>
@@ -9261,7 +9264,7 @@
       <c r="N12" s="180"/>
       <c r="O12" s="83"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="201">
         <v>40</v>
       </c>
@@ -9292,7 +9295,7 @@
       <c r="N13" s="180"/>
       <c r="O13" s="83"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="189"/>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -9314,7 +9317,7 @@
       <c r="N14" s="180"/>
       <c r="O14" s="83"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="189"/>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
@@ -9331,7 +9334,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="190" t="s">
         <v>35</v>
       </c>
@@ -9376,7 +9379,7 @@
       </c>
       <c r="O16" s="83"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="81">
         <v>10</v>
       </c>
@@ -9406,7 +9409,7 @@
       </c>
       <c r="O17" s="83"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="81">
         <v>20</v>
       </c>
@@ -9436,7 +9439,7 @@
       </c>
       <c r="O18" s="83"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="81">
         <v>30</v>
       </c>
@@ -9466,7 +9469,7 @@
       </c>
       <c r="O19" s="83"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="81">
         <v>40</v>
       </c>
@@ -9496,7 +9499,7 @@
       </c>
       <c r="O20" s="83"/>
     </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="81">
         <v>50</v>
       </c>
@@ -9531,7 +9534,7 @@
       </c>
       <c r="O21" s="83"/>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="81">
         <v>60</v>
       </c>
@@ -9566,7 +9569,7 @@
       </c>
       <c r="O22" s="83"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="81">
         <v>70</v>
       </c>
@@ -9605,7 +9608,7 @@
       </c>
       <c r="O23" s="83"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="81">
         <v>80</v>
       </c>
@@ -9644,7 +9647,7 @@
       </c>
       <c r="O24" s="83"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="81">
         <v>90</v>
       </c>
@@ -9679,7 +9682,7 @@
       </c>
       <c r="O25" s="83"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="81">
         <v>100</v>
       </c>
@@ -9714,7 +9717,7 @@
       </c>
       <c r="O26" s="83"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="81">
         <v>110</v>
       </c>
@@ -9753,7 +9756,7 @@
       </c>
       <c r="O27" s="83"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="81">
         <v>120</v>
       </c>
@@ -9792,7 +9795,7 @@
       </c>
       <c r="O28" s="83"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="81">
         <v>130</v>
       </c>
@@ -9827,7 +9830,7 @@
       </c>
       <c r="O29" s="83"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="81">
         <v>140</v>
       </c>
@@ -9862,7 +9865,7 @@
       </c>
       <c r="O30" s="83"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="81">
         <v>150</v>
       </c>
@@ -9897,7 +9900,7 @@
       </c>
       <c r="O31" s="83"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="81">
         <v>160</v>
       </c>
@@ -9932,7 +9935,7 @@
       </c>
       <c r="O32" s="83"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="81">
         <v>170</v>
       </c>
@@ -9966,7 +9969,7 @@
       </c>
       <c r="O33" s="83"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="185"/>
       <c r="B34" s="186"/>
       <c r="C34" s="186"/>
@@ -9988,7 +9991,7 @@
       </c>
       <c r="O34" s="83"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="189"/>
       <c r="B35" s="111"/>
       <c r="C35" s="111"/>
@@ -10005,7 +10008,7 @@
       <c r="N35" s="111"/>
       <c r="O35" s="83"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="190" t="s">
         <v>35</v>
       </c>
@@ -10040,7 +10043,7 @@
       <c r="N36" s="186"/>
       <c r="O36" s="83"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="81">
         <v>10</v>
       </c>
@@ -10072,7 +10075,7 @@
       <c r="N37" s="111"/>
       <c r="O37" s="83"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="81">
         <v>20</v>
       </c>
@@ -10104,7 +10107,7 @@
       <c r="N38" s="111"/>
       <c r="O38" s="83"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="81">
         <v>30</v>
       </c>
@@ -10136,7 +10139,7 @@
       <c r="N39" s="111"/>
       <c r="O39" s="83"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="81">
         <v>40</v>
       </c>
@@ -10168,7 +10171,7 @@
       <c r="N40" s="111"/>
       <c r="O40" s="83"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="81">
         <v>50</v>
       </c>
@@ -10200,7 +10203,7 @@
       <c r="N41" s="111"/>
       <c r="O41" s="83"/>
     </row>
-    <row r="42" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="81">
         <v>60</v>
       </c>
@@ -10232,7 +10235,7 @@
       <c r="N42" s="111"/>
       <c r="O42" s="83"/>
     </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="81">
         <v>70</v>
       </c>
@@ -10264,7 +10267,7 @@
       <c r="N43" s="111"/>
       <c r="O43" s="83"/>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="81">
         <v>80</v>
       </c>
@@ -10296,7 +10299,7 @@
       <c r="N44" s="111"/>
       <c r="O44" s="83"/>
     </row>
-    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="81">
         <v>90</v>
       </c>
@@ -10328,7 +10331,7 @@
       <c r="N45" s="111"/>
       <c r="O45" s="83"/>
     </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="81">
         <v>100</v>
       </c>
@@ -10360,7 +10363,7 @@
       <c r="N46" s="111"/>
       <c r="O46" s="83"/>
     </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="81">
         <v>110</v>
       </c>
@@ -10392,7 +10395,7 @@
       <c r="N47" s="111"/>
       <c r="O47" s="83"/>
     </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="81">
         <v>120</v>
       </c>
@@ -10424,7 +10427,7 @@
       <c r="N48" s="111"/>
       <c r="O48" s="83"/>
     </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="81">
         <v>130</v>
       </c>
@@ -10456,7 +10459,7 @@
       <c r="N49" s="111"/>
       <c r="O49" s="83"/>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="81">
         <v>140</v>
       </c>
@@ -10488,7 +10491,7 @@
       <c r="N50" s="111"/>
       <c r="O50" s="83"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="81">
         <v>150</v>
       </c>
@@ -10520,7 +10523,7 @@
       <c r="N51" s="111"/>
       <c r="O51" s="83"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="81">
         <v>160</v>
       </c>
@@ -10552,7 +10555,7 @@
       <c r="N52" s="111"/>
       <c r="O52" s="83"/>
     </row>
-    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="81">
         <v>170</v>
       </c>
@@ -10584,7 +10587,7 @@
       <c r="N53" s="111"/>
       <c r="O53" s="83"/>
     </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="81">
         <v>180</v>
       </c>
@@ -10616,7 +10619,7 @@
       <c r="N54" s="111"/>
       <c r="O54" s="83"/>
     </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="81">
         <v>190</v>
       </c>
@@ -10652,7 +10655,7 @@
       <c r="N55" s="111"/>
       <c r="O55" s="83"/>
     </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="81">
         <v>200</v>
       </c>
@@ -10688,7 +10691,7 @@
       <c r="N56" s="111"/>
       <c r="O56" s="83"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="81">
         <v>210</v>
       </c>
@@ -10724,7 +10727,7 @@
       <c r="N57" s="111"/>
       <c r="O57" s="83"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="81">
         <v>220</v>
       </c>
@@ -10756,7 +10759,7 @@
       <c r="N58" s="111"/>
       <c r="O58" s="83"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="81">
         <v>230</v>
       </c>
@@ -10788,7 +10791,7 @@
       <c r="N59" s="111"/>
       <c r="O59" s="83"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="81">
         <v>240</v>
       </c>
@@ -10820,7 +10823,7 @@
       <c r="N60" s="111"/>
       <c r="O60" s="83"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="81">
         <v>250</v>
       </c>
@@ -10852,7 +10855,7 @@
       <c r="N61" s="111"/>
       <c r="O61" s="83"/>
     </row>
-    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="81">
         <v>260</v>
       </c>
@@ -10884,7 +10887,7 @@
       <c r="N62" s="111"/>
       <c r="O62" s="83"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="81">
         <v>270</v>
       </c>
@@ -10916,7 +10919,7 @@
       <c r="N63" s="111"/>
       <c r="O63" s="83"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="185"/>
       <c r="B64" s="186"/>
       <c r="C64" s="186"/>
@@ -10938,7 +10941,7 @@
       <c r="N64" s="111"/>
       <c r="O64" s="83"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="189"/>
       <c r="B65" s="111"/>
       <c r="C65" s="111"/>
@@ -10955,7 +10958,7 @@
       <c r="N65" s="111"/>
       <c r="O65" s="83"/>
     </row>
-    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="190" t="s">
         <v>35</v>
       </c>
@@ -10992,7 +10995,7 @@
       <c r="N66" s="111"/>
       <c r="O66" s="83"/>
     </row>
-    <row r="67" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="81">
         <v>10</v>
       </c>
@@ -11031,7 +11034,7 @@
       <c r="N67" s="111"/>
       <c r="O67" s="83"/>
     </row>
-    <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="81">
         <v>20</v>
       </c>
@@ -11061,7 +11064,7 @@
       <c r="N68" s="111"/>
       <c r="O68" s="83"/>
     </row>
-    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="81">
         <v>30</v>
       </c>
@@ -11096,7 +11099,7 @@
       <c r="N69" s="111"/>
       <c r="O69" s="83"/>
     </row>
-    <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="81">
         <v>40</v>
       </c>
@@ -11135,7 +11138,7 @@
       <c r="N70" s="111"/>
       <c r="O70" s="83"/>
     </row>
-    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="81">
         <v>50</v>
       </c>
@@ -11170,7 +11173,7 @@
       <c r="N71" s="111"/>
       <c r="O71" s="83"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="81">
         <v>60</v>
       </c>
@@ -11209,7 +11212,7 @@
       <c r="N72" s="111"/>
       <c r="O72" s="83"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="81">
         <v>70</v>
       </c>
@@ -11239,7 +11242,7 @@
       <c r="N73" s="111"/>
       <c r="O73" s="83"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="81">
         <v>80</v>
       </c>
@@ -11274,7 +11277,7 @@
       <c r="N74" s="111"/>
       <c r="O74" s="83"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="81">
         <v>90</v>
       </c>
@@ -11309,7 +11312,7 @@
       <c r="N75" s="111"/>
       <c r="O75" s="83"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="81">
         <v>100</v>
       </c>
@@ -11339,7 +11342,7 @@
       <c r="N76" s="111"/>
       <c r="O76" s="83"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="185"/>
       <c r="B77" s="186"/>
       <c r="C77" s="186"/>
@@ -11361,7 +11364,7 @@
       <c r="N77" s="111"/>
       <c r="O77" s="83"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="185"/>
       <c r="B78" s="186"/>
       <c r="C78" s="186"/>
@@ -11378,7 +11381,7 @@
       <c r="N78" s="111"/>
       <c r="O78" s="83"/>
     </row>
-    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="212" t="s">
         <v>35</v>
       </c>
@@ -11413,7 +11416,7 @@
       <c r="N79" s="111"/>
       <c r="O79" s="83"/>
     </row>
-    <row r="80" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="177">
         <v>10</v>
       </c>
@@ -11449,7 +11452,7 @@
       <c r="N80" s="111"/>
       <c r="O80" s="83"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="185"/>
       <c r="B81" s="186"/>
       <c r="C81" s="186"/>
@@ -11471,7 +11474,7 @@
       <c r="N81" s="111"/>
       <c r="O81" s="83"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="185"/>
       <c r="B82" s="186"/>
       <c r="C82" s="186"/>
@@ -11488,7 +11491,7 @@
       <c r="N82" s="111"/>
       <c r="O82" s="83"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="214"/>
       <c r="B83" s="215"/>
       <c r="C83" s="215"/>
@@ -11505,7 +11508,7 @@
       <c r="N83" s="215"/>
       <c r="O83" s="216"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="111"/>
       <c r="B84" s="111"/>
       <c r="C84" s="111"/>
@@ -11522,7 +11525,7 @@
       <c r="N84" s="111"/>
       <c r="O84" s="111"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="111"/>
       <c r="B85" s="111"/>
       <c r="C85" s="111"/>
@@ -11540,11 +11543,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" location="'BR 03001'!A1" display="'BR 03001'!A1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="B11" location="'BR 03002'!A1" display="'BR 03002'!A1" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="B12" location="'BR 03003'!A1" display="'BR 03003'!A1" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="B13" location="'BR 03004'!A1" display="'BR 03004'!A1" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="E2" location="BR_A0003_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="B10" location="'BR 03001'!A1" display="'BR 03001'!A1"/>
+    <hyperlink ref="B11" location="'BR 03002'!A1" display="'BR 03002'!A1"/>
+    <hyperlink ref="B12" location="'BR 03003'!A1" display="'BR 03003'!A1"/>
+    <hyperlink ref="B13" location="'BR 03004'!A1" display="'BR 03004'!A1"/>
+    <hyperlink ref="E2" location="BR_A0003_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11558,36 +11561,38 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="1" max="1" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -11604,7 +11609,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -11636,7 +11641,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -11666,7 +11671,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -11692,7 +11697,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -11722,7 +11727,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -11745,7 +11750,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -11766,7 +11771,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -11785,7 +11790,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -11802,7 +11807,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -11847,7 +11852,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -11889,7 +11894,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -11911,7 +11916,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -11928,7 +11933,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -11963,7 +11968,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -11997,7 +12002,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -12031,7 +12036,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -12053,7 +12058,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -12070,7 +12075,7 @@
       <c r="N18" s="67"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -12087,7 +12092,7 @@
       <c r="N19" s="67"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -12104,7 +12109,7 @@
       <c r="N20" s="67"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -12121,7 +12126,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -12140,9 +12145,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="E3" location="'dBR 03001'!A1" display="Drawing" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1"/>
+    <hyperlink ref="E3" location="'dBR 03001'!A1" display="Drawing"/>
+    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="38" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12159,24 +12164,24 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="13.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="138" t="s">
         <v>163</v>
       </c>
@@ -12186,7 +12191,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'BR 03001'!A1" display="BR 03001" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="B1" location="'BR 03001'!A1" display="BR 03001"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12195,36 +12200,38 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="59"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="59"/>
     <col min="7" max="7" width="15" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" customWidth="1"/>
     <col min="9" max="9" width="27" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -12241,7 +12248,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -12273,7 +12280,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -12303,7 +12310,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -12329,7 +12336,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -12359,7 +12366,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -12382,7 +12389,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -12403,7 +12410,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -12422,7 +12429,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -12439,7 +12446,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -12484,7 +12491,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -12526,7 +12533,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -12548,7 +12555,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -12565,7 +12572,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -12600,7 +12607,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -12634,7 +12641,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -12668,7 +12675,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -12690,7 +12697,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -12707,7 +12714,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -12724,7 +12731,7 @@
       <c r="N19" s="60"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -12741,7 +12748,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
@@ -12758,7 +12765,7 @@
       <c r="N21" s="60"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -12777,9 +12784,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="E3" location="'dBR 03002'!A1" display="Drawing" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
+    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1"/>
+    <hyperlink ref="E3" location="'dBR 03002'!A1" display="Drawing"/>
+    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12796,36 +12803,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="59" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="8" max="8" width="9.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -12842,7 +12851,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>24</v>
       </c>
@@ -12874,7 +12883,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>150</v>
       </c>
@@ -12899,7 +12908,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>147</v>
       </c>
@@ -12922,7 +12931,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>144</v>
       </c>
@@ -12950,7 +12959,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>141</v>
       </c>
@@ -12973,7 +12982,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>139</v>
       </c>
@@ -12994,7 +13003,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -13011,7 +13020,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>35</v>
       </c>
@@ -13038,7 +13047,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="92">
         <v>10</v>
       </c>
@@ -13069,7 +13078,7 @@
       <c r="N10" s="60"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="92">
         <v>20</v>
       </c>
@@ -13100,7 +13109,7 @@
       <c r="N11" s="87"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="92">
         <v>30</v>
       </c>
@@ -13131,7 +13140,7 @@
       <c r="N12" s="87"/>
       <c r="O12" s="165"/>
     </row>
-    <row r="13" spans="1:15" s="158" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="158" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="92">
         <v>40</v>
       </c>
@@ -13162,7 +13171,7 @@
       <c r="N13" s="87"/>
       <c r="O13" s="165"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="78"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
@@ -13184,7 +13193,7 @@
       <c r="N14" s="87"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
@@ -13201,7 +13210,7 @@
       <c r="N15" s="60"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>35</v>
       </c>
@@ -13246,7 +13255,7 @@
       </c>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="73">
         <v>10</v>
       </c>
@@ -13278,7 +13287,7 @@
       </c>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="73">
         <v>20</v>
       </c>
@@ -13319,7 +13328,7 @@
       </c>
       <c r="O18" s="119"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -13341,7 +13350,7 @@
       </c>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -13358,7 +13367,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
         <v>35</v>
       </c>
@@ -13393,7 +13402,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="83"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="73">
         <v>10</v>
       </c>
@@ -13425,7 +13434,7 @@
       <c r="N22" s="60"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="81">
         <v>20</v>
       </c>
@@ -13457,7 +13466,7 @@
       <c r="N23" s="111"/>
       <c r="O23" s="83"/>
     </row>
-    <row r="24" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="81">
         <v>30</v>
       </c>
@@ -13489,7 +13498,7 @@
       <c r="N24" s="111"/>
       <c r="O24" s="83"/>
     </row>
-    <row r="25" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="81">
         <v>40</v>
       </c>
@@ -13521,7 +13530,7 @@
       <c r="N25" s="111"/>
       <c r="O25" s="83"/>
     </row>
-    <row r="26" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="81">
         <v>50</v>
       </c>
@@ -13553,7 +13562,7 @@
       <c r="N26" s="111"/>
       <c r="O26" s="83"/>
     </row>
-    <row r="27" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="81">
         <v>60</v>
       </c>
@@ -13585,7 +13594,7 @@
       <c r="N27" s="111"/>
       <c r="O27" s="83"/>
     </row>
-    <row r="28" spans="1:15" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="182" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81">
         <v>70</v>
       </c>
@@ -13617,7 +13626,7 @@
       <c r="N28" s="180"/>
       <c r="O28" s="181"/>
     </row>
-    <row r="29" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="73">
         <v>80</v>
       </c>
@@ -13649,7 +13658,7 @@
       <c r="N29" s="87"/>
       <c r="O29" s="83"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="68"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
@@ -13671,7 +13680,7 @@
       <c r="N30" s="60"/>
       <c r="O30" s="64"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="78"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -13688,7 +13697,7 @@
       <c r="N31" s="60"/>
       <c r="O31" s="64"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="77" t="s">
         <v>35</v>
       </c>
@@ -13725,7 +13734,7 @@
       <c r="N32" s="60"/>
       <c r="O32" s="64"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="73">
         <v>10</v>
       </c>
@@ -13764,7 +13773,7 @@
       <c r="N33" s="60"/>
       <c r="O33" s="64"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="73">
         <v>20</v>
       </c>
@@ -13798,7 +13807,7 @@
       <c r="N34" s="60"/>
       <c r="O34" s="64"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="73">
         <v>30</v>
       </c>
@@ -13833,7 +13842,7 @@
       <c r="N35" s="60"/>
       <c r="O35" s="64"/>
     </row>
-    <row r="36" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="163">
         <v>40</v>
       </c>
@@ -13867,7 +13876,7 @@
       <c r="N36" s="146"/>
       <c r="O36" s="119"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="68"/>
       <c r="B37" s="67"/>
       <c r="C37" s="67"/>
@@ -13889,7 +13898,7 @@
       <c r="N37" s="60"/>
       <c r="O37" s="64"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="63"/>
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
@@ -13906,7 +13915,7 @@
       <c r="N38" s="62"/>
       <c r="O38" s="61"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -13924,11 +13933,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" location="'BR 01001'!A1" display="'BR 01001'!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" location="'BR 01002'!A1" display="'BR 01002'!A1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B12" location="'BR 01003'!A1" display="'BR 01003'!A1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B13" location="'BR 01004'!A1" display="'BR 01004'!A1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E2" location="BR_A0001_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B10" location="'BR 01001'!A1" display="'BR 01001'!A1"/>
+    <hyperlink ref="B11" location="'BR 01002'!A1" display="'BR 01002'!A1"/>
+    <hyperlink ref="B12" location="'BR 01003'!A1" display="'BR 01003'!A1"/>
+    <hyperlink ref="B13" location="'BR 01004'!A1" display="'BR 01004'!A1"/>
+    <hyperlink ref="E2" location="BR_A0001_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -13942,23 +13951,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="13.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>163</v>
       </c>
@@ -13968,7 +13977,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'BR 03002'!A1" display="BR 03002" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink ref="B1" location="'BR 03002'!A1" display="BR 03002"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13976,37 +13985,37 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
     <col min="2" max="2" width="35" style="59" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="59" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="59" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" customWidth="1"/>
     <col min="9" max="10" width="11" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -14023,7 +14032,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -14055,7 +14064,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -14085,7 +14094,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -14111,7 +14120,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -14141,7 +14150,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -14164,7 +14173,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -14185,7 +14194,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -14206,7 +14215,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -14223,7 +14232,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -14268,7 +14277,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -14306,7 +14315,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -14328,7 +14337,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -14345,7 +14354,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -14380,7 +14389,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="151">
         <v>10</v>
       </c>
@@ -14414,7 +14423,7 @@
       <c r="N15" s="146"/>
       <c r="O15" s="119"/>
     </row>
-    <row r="16" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="145">
         <v>20</v>
       </c>
@@ -14448,7 +14457,7 @@
       <c r="N16" s="111"/>
       <c r="O16" s="83"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -14470,7 +14479,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -14487,7 +14496,7 @@
       <c r="N18" s="67"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -14504,7 +14513,7 @@
       <c r="N19" s="67"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -14521,7 +14530,7 @@
       <c r="N20" s="67"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -14538,7 +14547,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -14557,9 +14566,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="E3" location="'dBR 03003'!A1" display="Drawing" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-1400-000002000000}"/>
+    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1"/>
+    <hyperlink ref="E3" location="'dBR 03003'!A1" display="Drawing"/>
+    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -14576,23 +14585,23 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="59" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="13.88671875" style="59" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>174</v>
       </c>
@@ -14603,7 +14612,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="BR_03003" display="BR_03003" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="B1" location="BR_03003" display="BR_03003"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14611,7 +14620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -14619,29 +14628,29 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="59" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="59" customWidth="1"/>
     <col min="3" max="3" width="5" style="59" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="59"/>
-    <col min="6" max="6" width="8.42578125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="59"/>
+    <col min="6" max="6" width="8.44140625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="59" customWidth="1"/>
     <col min="9" max="10" width="11" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -14658,7 +14667,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -14690,7 +14699,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -14720,7 +14729,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -14746,7 +14755,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -14776,7 +14785,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -14799,7 +14808,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -14820,7 +14829,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -14841,7 +14850,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -14858,7 +14867,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -14903,7 +14912,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -14941,7 +14950,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -14963,7 +14972,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -14980,7 +14989,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -15015,7 +15024,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="151">
         <v>10</v>
       </c>
@@ -15049,7 +15058,7 @@
       <c r="N15" s="146"/>
       <c r="O15" s="119"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -15082,7 +15091,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -15104,7 +15113,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -15121,7 +15130,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -15138,7 +15147,7 @@
       <c r="N19" s="60"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -15155,7 +15164,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="63"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -15174,9 +15183,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
-    <hyperlink ref="E3" location="'dBR 03004'!A1" display="Drawing" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
+    <hyperlink ref="B4" location="'BR A0003'!A1" display="'BR A0003'!A1"/>
+    <hyperlink ref="E3" location="'dBR 03004'!A1" display="Drawing"/>
+    <hyperlink ref="G2" location="BR_A0003_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -15193,23 +15202,23 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF95B3D7"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="59" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="13.44140625" style="59" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>174</v>
       </c>
@@ -15220,7 +15229,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="BR_03004" display="BR_03004" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="B1" location="BR_03004" display="BR_03004"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15228,37 +15237,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -15275,7 +15284,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -15307,7 +15316,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -15335,7 +15344,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -15361,7 +15370,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -15391,7 +15400,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -15414,7 +15423,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -15435,7 +15444,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -15456,7 +15465,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -15473,7 +15482,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -15518,7 +15527,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -15562,7 +15571,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -15584,7 +15593,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -15601,7 +15610,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -15636,7 +15645,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -15673,7 +15682,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -15709,7 +15718,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -15731,7 +15740,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -15748,7 +15757,7 @@
       <c r="N18" s="67"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -15765,7 +15774,7 @@
       <c r="N19" s="67"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -15782,7 +15791,7 @@
       <c r="N20" s="67"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -15799,7 +15808,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="68"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -15816,7 +15825,7 @@
       <c r="N22" s="67"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="68"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -15833,7 +15842,7 @@
       <c r="N23" s="67"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="68"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -15850,7 +15859,7 @@
       <c r="N24" s="67"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="68"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -15867,7 +15876,7 @@
       <c r="N25" s="67"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="63"/>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
@@ -15886,8 +15895,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1"/>
+    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -15904,36 +15913,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
     <col min="2" max="2" width="35" style="59" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="59"/>
-    <col min="7" max="7" width="37.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="59"/>
+    <col min="7" max="7" width="37.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -15950,7 +15961,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -15982,7 +15993,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -16012,7 +16023,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -16038,7 +16049,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -16068,7 +16079,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -16091,7 +16102,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -16112,7 +16123,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -16133,7 +16144,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -16150,7 +16161,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -16195,7 +16206,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -16239,7 +16250,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -16261,7 +16272,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -16278,7 +16289,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -16313,7 +16324,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -16350,7 +16361,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -16386,7 +16397,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -16408,7 +16419,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -16425,7 +16436,7 @@
       <c r="N18" s="67"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -16442,7 +16453,7 @@
       <c r="N19" s="67"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -16459,7 +16470,7 @@
       <c r="N20" s="67"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -16476,7 +16487,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="68"/>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -16493,7 +16504,7 @@
       <c r="N22" s="67"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="68"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -16510,7 +16521,7 @@
       <c r="N23" s="67"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="68"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -16527,7 +16538,7 @@
       <c r="N24" s="67"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="68"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -16544,7 +16555,7 @@
       <c r="N25" s="67"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="68"/>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
@@ -16561,7 +16572,7 @@
       <c r="N26" s="67"/>
       <c r="O26" s="64"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="68"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
@@ -16578,7 +16589,7 @@
       <c r="N27" s="67"/>
       <c r="O27" s="64"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="63"/>
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
@@ -16597,9 +16608,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" location="dBR_01002" display="Drawing" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E3" location="dBR_01002" display="Drawing"/>
+    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1"/>
+    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16616,24 +16627,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="59" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="138" t="s">
         <v>163</v>
       </c>
@@ -16643,7 +16654,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'BR 01002'!A1" display="BR 01002" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B1" location="'BR 01002'!A1" display="BR 01002"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16652,37 +16663,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="59"/>
+    <col min="1" max="1" width="10.5546875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="59"/>
     <col min="7" max="7" width="19" style="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -16699,7 +16710,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -16731,7 +16742,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -16759,7 +16770,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -16785,7 +16796,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -16815,7 +16826,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -16838,7 +16849,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -16859,7 +16870,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -16880,7 +16891,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -16897,7 +16908,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -16942,7 +16953,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -16985,7 +16996,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -17007,7 +17018,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -17024,7 +17035,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -17059,7 +17070,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -17096,7 +17107,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -17130,7 +17141,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -17152,7 +17163,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -17169,7 +17180,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="63"/>
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
@@ -17188,8 +17199,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1"/>
+    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -17206,36 +17217,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="59"/>
-    <col min="7" max="7" width="37.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="59"/>
+    <col min="7" max="7" width="37.109375" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -17252,7 +17265,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
@@ -17284,7 +17297,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>150</v>
       </c>
@@ -17314,7 +17327,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>147</v>
       </c>
@@ -17340,7 +17353,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>137</v>
       </c>
@@ -17370,7 +17383,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>144</v>
       </c>
@@ -17393,7 +17406,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="133" t="s">
         <v>141</v>
       </c>
@@ -17414,7 +17427,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
         <v>139</v>
       </c>
@@ -17435,7 +17448,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="132"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -17452,7 +17465,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>35</v>
       </c>
@@ -17497,7 +17510,7 @@
       </c>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128">
         <v>10</v>
       </c>
@@ -17541,7 +17554,7 @@
       </c>
       <c r="O11" s="119"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -17563,7 +17576,7 @@
       </c>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -17580,7 +17593,7 @@
       <c r="N13" s="60"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
         <v>35</v>
       </c>
@@ -17615,7 +17628,7 @@
       <c r="N14" s="67"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="114">
         <v>10</v>
       </c>
@@ -17652,7 +17665,7 @@
       <c r="N15" s="111"/>
       <c r="O15" s="83"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="110">
         <v>20</v>
       </c>
@@ -17688,7 +17701,7 @@
       <c r="N16" s="60"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -17710,7 +17723,7 @@
       <c r="N17" s="67"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="78"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -17727,7 +17740,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -17744,7 +17757,7 @@
       <c r="N19" s="60"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -17761,7 +17774,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
@@ -17778,7 +17791,7 @@
       <c r="N21" s="60"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="63"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -17797,9 +17810,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" location="dBR_01004" display="Drawing" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E3" location="dBR_01004" display="Drawing"/>
+    <hyperlink ref="B4" location="'BR A0001'!A1" display="'BR A0001'!A1"/>
+    <hyperlink ref="G2" location="BR_A0001_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -17816,23 +17829,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="59"/>
+    <col min="1" max="1" width="13.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>163</v>
       </c>
@@ -17842,7 +17855,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'BR 01004'!A1" display="BR 01004" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B1" location="'BR 01004'!A1" display="BR 01004"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17850,38 +17863,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="59"/>
-    <col min="7" max="7" width="10.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="59"/>
+    <col min="7" max="7" width="10.44140625" style="59" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="13" width="13.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="59" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="102"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -17898,7 +17911,7 @@
       <c r="N1" s="101"/>
       <c r="O1" s="100"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>24</v>
       </c>
@@ -17930,7 +17943,7 @@
       </c>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>150</v>
       </c>
@@ -17955,7 +17968,7 @@
       </c>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>147</v>
       </c>
@@ -17978,7 +17991,7 @@
       <c r="N4" s="60"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>144</v>
       </c>
@@ -18006,7 +18019,7 @@
       </c>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>141</v>
       </c>
@@ -18029,7 +18042,7 @@
       <c r="N6" s="60"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>139</v>
       </c>
@@ -18050,7 +18063,7 @@
       <c r="N7" s="60"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -18067,7 +18080,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>35</v>
       </c>
@@ -18094,7 +18107,7 @@
       <c r="N9" s="60"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="92">
         <v>10</v>
       </c>
@@ -18125,7 +18138,7 @@
       <c r="N10" s="60"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="92">
         <v>20</v>
       </c>
@@ -18156,7 +18169,7 @@
       <c r="N11" s="87"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="92">
         <v>30</v>
       </c>
@@ -18187,7 +18200,7 @@
       <c r="N12" s="87"/>
       <c r="O12" s="165"/>
     </row>
-    <row r="13" spans="1:15" s="158" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="158" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="92">
         <v>40</v>
       </c>
@@ -18218,7 +18231,7 @@
       <c r="N13" s="87"/>
       <c r="O13" s="165"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="78"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
@@ -18240,7 +18253,7 @@
       <c r="N14" s="87"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
@@ -18257,7 +18270,7 @@
       <c r="N15" s="60"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>35</v>
       </c>
@@ -18302,7 +18315,7 @@
       </c>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="73">
         <v>10</v>
       </c>
@@ -18334,7 +18347,7 @@
       </c>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="73">
         <v>20</v>
       </c>
@@ -18375,7 +18388,7 @@
       </c>
       <c r="O18" s="119"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -18397,7 +18410,7 @@
       </c>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -18414,7 +18427,7 @@
       <c r="N20" s="60"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
         <v>35</v>
       </c>
@@ -18449,7 +18462,7 @@
       <c r="N21" s="67"/>
       <c r="O21" s="83"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="73">
         <v>10</v>
       </c>
@@ -18481,7 +18494,7 @@
       <c r="N22" s="60"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>238</v>
       </c>
@@ -18513,7 +18526,7 @@
       <c r="N23" s="111"/>
       <c r="O23" s="83"/>
     </row>
-    <row r="24" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="81">
         <v>30</v>
       </c>
@@ -18545,7 +18558,7 @@
       <c r="N24" s="111"/>
       <c r="O24" s="83"/>
     </row>
-    <row r="25" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="81">
         <v>40</v>
       </c>
@@ -18577,7 +18590,7 @@
       <c r="N25" s="111"/>
       <c r="O25" s="83"/>
     </row>
-    <row r="26" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="81">
         <v>50</v>
       </c>
@@ -18609,7 +18622,7 @@
       <c r="N26" s="111"/>
       <c r="O26" s="83"/>
     </row>
-    <row r="27" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="81">
         <v>60</v>
       </c>
@@ -18641,7 +18654,7 @@
       <c r="N27" s="111"/>
       <c r="O27" s="83"/>
     </row>
-    <row r="28" spans="1:15" s="182" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="182" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81">
         <v>70</v>
       </c>
@@ -18673,7 +18686,7 @@
       <c r="N28" s="180"/>
       <c r="O28" s="181"/>
     </row>
-    <row r="29" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="81">
         <v>80</v>
       </c>
@@ -18705,7 +18718,7 @@
       <c r="N29" s="180"/>
       <c r="O29" s="83"/>
     </row>
-    <row r="30" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="185"/>
       <c r="B30" s="186"/>
       <c r="C30" s="186"/>
@@ -18727,7 +18740,7 @@
       <c r="N30" s="111"/>
       <c r="O30" s="83"/>
     </row>
-    <row r="31" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="189"/>
       <c r="B31" s="111"/>
       <c r="C31" s="111"/>
@@ -18744,7 +18757,7 @@
       <c r="N31" s="111"/>
       <c r="O31" s="83"/>
     </row>
-    <row r="32" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="190" t="s">
         <v>35</v>
       </c>
@@ -18781,7 +18794,7 @@
       <c r="N32" s="111"/>
       <c r="O32" s="83"/>
     </row>
-    <row r="33" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="81">
         <v>10</v>
       </c>
@@ -18820,7 +18833,7 @@
       <c r="N33" s="111"/>
       <c r="O33" s="83"/>
     </row>
-    <row r="34" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="81">
         <v>20</v>
       </c>
@@ -18854,7 +18867,7 @@
       <c r="N34" s="111"/>
       <c r="O34" s="83"/>
     </row>
-    <row r="35" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="81">
         <v>30</v>
       </c>
@@ -18889,7 +18902,7 @@
       <c r="N35" s="111"/>
       <c r="O35" s="83"/>
     </row>
-    <row r="36" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="81">
         <v>40</v>
       </c>
@@ -18923,7 +18936,7 @@
       <c r="N36" s="111"/>
       <c r="O36" s="83"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="68"/>
       <c r="B37" s="67"/>
       <c r="C37" s="67"/>
@@ -18945,7 +18958,7 @@
       <c r="N37" s="60"/>
       <c r="O37" s="64"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="63"/>
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
@@ -18962,7 +18975,7 @@
       <c r="N38" s="62"/>
       <c r="O38" s="61"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -18980,11 +18993,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" location="'BR 02001'!A1" display="'BR 02001'!A1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B11" location="'BR 02002'!A1" display="'BR 02002'!A1" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B12" location="'BR 02003'!A1" display="'BR 02003'!A1" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B13" location="'BR 02004'!A1" display="'BR 02004'!A1" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="E2" location="BR_A0002_BOM" display="Back to BOM" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B10" location="'BR 02001'!A1" display="'BR 02001'!A1"/>
+    <hyperlink ref="B11" location="'BR 02002'!A1" display="'BR 02002'!A1"/>
+    <hyperlink ref="B12" location="'BR 02003'!A1" display="'BR 02003'!A1"/>
+    <hyperlink ref="B13" location="'BR 02004'!A1" display="'BR 02004'!A1"/>
+    <hyperlink ref="E2" location="BR_A0002_BOM" display="Back to BOM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
